--- a/biology/Histoire de la zoologie et de la botanique/Karl_Eduard_von_Eichwald/Karl_Eduard_von_Eichwald.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Karl_Eduard_von_Eichwald/Karl_Eduard_von_Eichwald.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Eduard von Eichwald est un naturaliste allemand de la Baltique, sujet de l'Empire russe, né le 16 juillet 1795 à Mitau et mort le 22 novembre 1876 à Saint-Pétersbourg.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Johann Christian von Eichwald et de Charlotte Elisabeth, née Louis. Il entre à l’université de Berlin en 1814 et obtient son titre de docteur en médecine à Wilna en 1819. Il est maître-assistant à de zoologie, de paléontologie et géologie à Dorpat en 1821, puis professeur de zoologie et de médecine à Kazan en 1823.
 En 1825, il se marie avec Sophie von Fincke. En 1827, il devient professeur à l’université de Wilna, et de 1838 à 1851 à l’école de médecine et de chirurgie de Saint-Pétersbourg. Il enseigne également la paléontologie et la minéralogie à l’école du génie.
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il est notamment l’auteur de:
 Zoologia specialis quam expoditis animalibus tum vivis, tum fossilibus Rossiae in universum et Poloniae in specie (3 volumes, 1829-1831),
